--- a/PlanExperience/Exercice 1 données apprenant.xlsx
+++ b/PlanExperience/Exercice 1 données apprenant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\muller5\Documents\BB - Ressources pedagogiques\Plans d'expériences\A2P2 Cesi NY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjetHDD\Ecole\Projet_CESI\2025-2026\Systèmes_automatisés\PlanExperience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894E8914-E251-4EF1-878F-1F0C18D26149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032DE930-A6BC-4A67-BBAE-7AE65DEB917C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8652" xr2:uid="{E95D01EA-54DD-4797-B22D-292D1E10A375}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E95D01EA-54DD-4797-B22D-292D1E10A375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Essai</t>
   </si>
@@ -85,6 +96,12 @@
   </si>
   <si>
     <t>EL2</t>
+  </si>
+  <si>
+    <t>y^= M + E + L</t>
+  </si>
+  <si>
+    <t>25 + [-7.5,7.5] E + [-5,5] L</t>
   </si>
 </sst>
 </file>
@@ -116,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,11 +156,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -155,16 +183,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,7 +206,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -393,6 +414,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -424,6 +457,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1192,9 +1249,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1232,7 +1289,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1338,7 +1395,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1480,7 +1537,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1488,18 +1545,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A107E03E-C174-4E40-89E7-F2958EC395FD}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1515,12 +1572,12 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="3"/>
       <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1534,12 +1591,12 @@
       <c r="E2" s="2">
         <v>15</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="3"/>
       <c r="G2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1553,9 +1610,9 @@
       <c r="E3" s="2">
         <v>20</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1569,9 +1626,9 @@
       <c r="E4" s="2">
         <v>25</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1582,16 +1639,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>40</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1603,74 +1660,128 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <f>AVERAGE(E2:E3)</f>
+        <v>17.5</v>
+      </c>
+      <c r="C8" s="2">
+        <f>B8-D8</f>
+        <v>-7.5</v>
+      </c>
+      <c r="D8" s="2">
+        <f>AVERAGE(E2:E5)</f>
+        <v>25</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f>AVERAGE(E4:E5)</f>
+        <v>32.5</v>
+      </c>
+      <c r="C9" s="2">
+        <f>B9-D9</f>
+        <v>7.5</v>
+      </c>
+      <c r="D9" s="2">
+        <f>AVERAGE(E2:E5)</f>
+        <v>25</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="2">
+        <f>AVERAGE(E2:E5)</f>
+        <v>25</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <f>AVERAGE(E2,E4)</f>
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <f>B11-D11</f>
+        <v>-5</v>
+      </c>
+      <c r="D11" s="2">
+        <f>AVERAGE(E2:E5)</f>
+        <v>25</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <f>AVERAGE(E3,E5)</f>
+        <v>30</v>
+      </c>
+      <c r="C12" s="2">
+        <f>B12-D12</f>
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <f>AVERAGE(E2:E5)</f>
+        <v>25</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="D13" s="2">
+        <f>AVERAGE(E2:E5)</f>
+        <v>25</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="C14" s="2">
+        <f>B14-D14</f>
+        <v>-25</v>
+      </c>
+      <c r="D14" s="2">
+        <f>AVERAGE(E2:E5)</f>
+        <v>25</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
+        <f>B15-D15</f>
+        <v>-25</v>
+      </c>
+      <c r="D15" s="2">
+        <f>AVERAGE(E2:E5)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -1686,14 +1797,17 @@
       <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -1704,11 +1818,22 @@
         <v>1</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E18" s="2">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2">
+        <f>D8+IF(B18=1,$C$8,$C$9)+IF(C18=1,$C$11,$C$12)</f>
+        <v>12.5</v>
+      </c>
+      <c r="G18" s="2">
+        <f>E18-F18</f>
+        <v>2.5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -1719,11 +1844,19 @@
         <v>2</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="2">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" ref="F19:F21" si="0">D9+IF(B19=1,$C$8,$C$9)+IF(C19=1,$C$11,$C$12)</f>
+        <v>22.5</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" ref="G19:G21" si="1">E19-F19</f>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -1734,11 +1867,19 @@
         <v>1</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="2">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -1749,17 +1890,25 @@
         <v>2</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="2">
+        <v>40</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1775,14 +1924,14 @@
       <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -1797,7 +1946,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -1812,7 +1961,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>3</v>
       </c>
@@ -1827,7 +1976,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>4</v>
       </c>
@@ -1838,11 +1987,11 @@
         <v>2</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>16</v>
       </c>

--- a/PlanExperience/Exercice 1 données apprenant.xlsx
+++ b/PlanExperience/Exercice 1 données apprenant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjetHDD\Ecole\Projet_CESI\2025-2026\Systèmes_automatisés\PlanExperience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032DE930-A6BC-4A67-BBAE-7AE65DEB917C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD2F561-5EF0-44F1-8975-932F38637B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E95D01EA-54DD-4797-B22D-292D1E10A375}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Essai</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>25 + [-7.5,7.5] E + [-5,5] L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recreiture du model : </t>
+  </si>
+  <si>
+    <t>^y = M + E  + L + EL</t>
+  </si>
+  <si>
+    <t>25 + [-7.5,7.5] E + [-5,5] L + [2,5,-2.5]EL</t>
   </si>
 </sst>
 </file>
@@ -425,6 +434,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1547,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A107E03E-C174-4E40-89E7-F2958EC395FD}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,7 +1602,9 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
       <c r="E2" s="2">
         <v>15</v>
       </c>
@@ -1606,7 +1623,9 @@
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
       <c r="E3" s="2">
         <v>20</v>
       </c>
@@ -1622,7 +1641,9 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
       <c r="E4" s="2">
         <v>25</v>
       </c>
@@ -1638,7 +1659,9 @@
       <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
       <c r="E5" s="2">
         <v>40</v>
       </c>
@@ -1756,10 +1779,13 @@
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <f>AVERAGE(E2,E5)</f>
+        <v>27.5</v>
+      </c>
       <c r="C14" s="2">
         <f>B14-D14</f>
-        <v>-25</v>
+        <v>2.5</v>
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(E2:E5)</f>
@@ -1771,10 +1797,13 @@
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <f>AVERAGE(E3,E4)</f>
+        <v>22.5</v>
+      </c>
       <c r="C15" s="2">
         <f>B15-D15</f>
-        <v>-25</v>
+        <v>-2.5</v>
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(E2:E5)</f>
@@ -1817,17 +1846,19 @@
       <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
       <c r="E18" s="2">
         <v>15</v>
       </c>
       <c r="F18" s="2">
-        <f>D8+IF(B18=1,$C$8,$C$9)+IF(C18=1,$C$11,$C$12)</f>
-        <v>12.5</v>
+        <f>D8+IF(B18=1,$C$8,$C$9)+IF(C18=1,$C$11,$C$12)+IF(D18=1,$C$14,$C$15)</f>
+        <v>15</v>
       </c>
       <c r="G18" s="2">
         <f>E18-F18</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
         <v>21</v>
@@ -1843,17 +1874,19 @@
       <c r="C19" s="2">
         <v>2</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
       <c r="E19" s="2">
         <v>20</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" ref="F19:F21" si="0">D9+IF(B19=1,$C$8,$C$9)+IF(C19=1,$C$11,$C$12)</f>
-        <v>22.5</v>
+        <f t="shared" ref="F19:F21" si="0">D9+IF(B19=1,$C$8,$C$9)+IF(C19=1,$C$11,$C$12)+IF(D19=1,$C$14,$C$15)</f>
+        <v>20</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" ref="G19:G21" si="1">E19-F19</f>
-        <v>-2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1866,17 +1899,22 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
       <c r="E20" s="2">
         <v>25</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>27.5</v>
+        <v>25</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="1"/>
-        <v>-2.5</v>
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1889,112 +1927,82 @@
       <c r="C21" s="2">
         <v>2</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
       <c r="E21" s="2">
         <v>40</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2">
+        <f>SUM(G18:G21)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>2</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2">
-        <v>2</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>4</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
       <c r="G29" s="2"/>
     </row>
   </sheetData>
